--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail10 Features.xlsx
@@ -1731,7 +1731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1742,29 +1742,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1785,115 +1783,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -1910,72 +1898,66 @@
         <v>1.191634568527575e-06</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.392964022859067</v>
+        <v>3.842660855422236e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.3872838135805052</v>
+        <v>6.056485288736935e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.842660855422236e-06</v>
+        <v>0.04332965187323445</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.056485288736935e-06</v>
+        <v>0.1084569255162868</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.04332965187323445</v>
+        <v>0.01363501270846913</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1084569255162868</v>
+        <v>1.379378969385664</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01363501270846913</v>
+        <v>1.449296423511835</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.302226565811377</v>
+        <v>3.82019458606479</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.449296423511835</v>
+        <v>1.024687511731394e-13</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.82019458606479</v>
+        <v>7233062.058648088</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.024687511731394e-13</v>
+        <v>1.267537168160378e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>7233062.058648088</v>
+        <v>5.360876790575682</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.267537168160378e-05</v>
+        <v>0.0001670709662693738</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5.360876790575682</v>
+        <v>12.21401436980097</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001670709662693738</v>
+        <v>1.061133208280097</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.21401436980097</v>
+        <v>0.02492400545372425</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.061133208280097</v>
+        <v>2.82683201834862</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02492400545372425</v>
+        <v>0.9207091758838876</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.82683201834862</v>
+        <v>1.802868021308644</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9207091758838876</v>
+        <v>5</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.802868021308644</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1788993933651738</v>
       </c>
     </row>
@@ -1990,72 +1972,66 @@
         <v>1.240868409663187e-06</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.286888664796379</v>
+        <v>3.844570940044085e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.05149931068666813</v>
+        <v>6.110745669443709e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.844570940044085e-06</v>
+        <v>0.04552795235377684</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.110745669443709e-06</v>
+        <v>0.09788813539047433</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.04552795235377684</v>
+        <v>0.01165275186200251</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.09788813539047433</v>
+        <v>1.39722081563937</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01165275186200251</v>
+        <v>1.43846400607021</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.318248546697273</v>
+        <v>4.253094372462714</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.43846400607021</v>
+        <v>8.267084448641831e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.253094372462714</v>
+        <v>9100333.870443096</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>8.267084448641831e-14</v>
+        <v>1.020787305545681e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>9100333.870443096</v>
+        <v>6.846474985732509</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.020787305545681e-05</v>
+        <v>0.0001558513117188168</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.846474985732509</v>
+        <v>10.76438776146982</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001558513117188168</v>
+        <v>1.223583642187988</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.76438776146982</v>
+        <v>0.01805881003012627</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.223583642187988</v>
+        <v>3.103048335390667</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01805881003012627</v>
+        <v>0.9218680257417345</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.103048335390667</v>
+        <v>1.816172315631777</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9218680257417345</v>
+        <v>5</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.816172315631777</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1836035735501723</v>
       </c>
     </row>
@@ -2070,72 +2046,66 @@
         <v>1.28352941466119e-06</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.185932044455017</v>
+        <v>3.844570940044085e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.2375851993973104</v>
+        <v>6.16896360113036e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.844570940044085e-06</v>
+        <v>0.04648639100747483</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.16896360113036e-06</v>
+        <v>0.09122132543180733</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04648639100747483</v>
+        <v>0.01048152777058097</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.09122132543180733</v>
+        <v>1.421001028158519</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01048152777058097</v>
+        <v>1.50682557799313</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.338345971842242</v>
+        <v>4.675926275519594</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.50682557799313</v>
+        <v>6.839543289274569e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.675926275519594</v>
+        <v>10529878.85710015</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.839543289274569e-14</v>
+        <v>9.137643679316434e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>10529878.85710015</v>
+        <v>7.583572660861098</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>9.137643679316434e-06</v>
+        <v>0.0001456016419535597</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>7.583572660861098</v>
+        <v>9.581055158699989</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001456016419535597</v>
+        <v>1.607960756021222</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.581055158699989</v>
+        <v>0.01336573829989354</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.607960756021222</v>
+        <v>3.462423755171542</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01336573829989354</v>
+        <v>0.9262216267758866</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.462423755171542</v>
+        <v>1.816006207671524</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9262216267758866</v>
+        <v>6</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.816006207671524</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2086648732545463</v>
       </c>
     </row>
@@ -2150,72 +2120,66 @@
         <v>1.319894361363908e-06</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.092233839390918</v>
+        <v>3.844570940044085e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.48556958950312</v>
+        <v>6.229759542812462e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.844570940044085e-06</v>
+        <v>0.04681483455779621</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.229759542812462e-06</v>
+        <v>0.08692454410134451</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.04681483455779621</v>
+        <v>0.009747406824813398</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.08692454410134451</v>
+        <v>1.469938557796193</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.009747406824813398</v>
+        <v>1.439114969698285</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.373800845737717</v>
+        <v>4.295747547933479</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.439114969698285</v>
+        <v>6.575201871302983e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.295747547933479</v>
+        <v>10092248.96034164</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.575201871302983e-14</v>
+        <v>1.021247859894304e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>10092248.96034164</v>
+        <v>6.697072519812275</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.021247859894304e-05</v>
+        <v>0.0001162017843903285</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>6.697072519812275</v>
+        <v>9.598034665995677</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001162017843903285</v>
+        <v>1.742706905721199</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.598034665995677</v>
+        <v>0.01070477209213653</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.742706905721199</v>
+        <v>3.778122362085346</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01070477209213653</v>
+        <v>0.93685319236919</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.778122362085346</v>
+        <v>1.851007122600189</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.93685319236919</v>
+        <v>6</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.851007122600189</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2619135686249953</v>
       </c>
     </row>
@@ -2230,72 +2194,66 @@
         <v>1.35134199240125e-06</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.005794066183236</v>
+        <v>3.848311171314133e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.6987421937237803</v>
+        <v>6.29242073400021e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.848311171314133e-06</v>
+        <v>0.04691742019780344</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.29242073400021e-06</v>
+        <v>0.08391783097682515</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04691742019780344</v>
+        <v>0.009243599462085559</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.08391783097682515</v>
+        <v>1.491866738750788</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.009243599462085559</v>
+        <v>1.624650123089878</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.38935271539527</v>
+        <v>4.278439683789918</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.624650123089878</v>
+        <v>6.628507700553913e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.278439683789918</v>
+        <v>10219857.37295342</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.628507700553913e-14</v>
+        <v>1.027455328993916e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>10219857.37295342</v>
+        <v>6.923176997778751</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.027455328993916e-05</v>
+        <v>8.794734764556407e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>6.923176997778751</v>
+        <v>10.85580741086048</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>8.794734764556407e-05</v>
+        <v>1.30027157970205</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.85580741086048</v>
+        <v>0.01036446779580552</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.30027157970205</v>
+        <v>3.765638749302683</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01036446779580552</v>
+        <v>0.9432800128883221</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.765638749302683</v>
+        <v>1.846184064190101</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9432800128883221</v>
+        <v>9</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.846184064190101</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2955840916361665</v>
       </c>
     </row>
@@ -2310,72 +2268,66 @@
         <v>1.37885094172017e-06</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.9254247280302379</v>
+        <v>3.868514986292252e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8834901277185905</v>
+        <v>6.356378304719914e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.868514986292252e-06</v>
+        <v>0.04669930411959975</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.356378304719914e-06</v>
+        <v>0.08177092974215044</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04669930411959975</v>
+        <v>0.008867568604380122</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.08177092974215044</v>
+        <v>1.487431031368222</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.008867568604380122</v>
+        <v>1.521682743238773</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.384594530580942</v>
+        <v>4.176905282812705</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.521682743238773</v>
+        <v>6.954682987219223e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.176905282812705</v>
+        <v>9750197.108082773</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6.954682987219223e-14</v>
+        <v>1.074985138562732e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>9750197.108082773</v>
+        <v>6.611562828152111</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.074985138562732e-05</v>
+        <v>9.836592995407102e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>6.611562828152111</v>
+        <v>11.26332071304483</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>9.836592995407102e-05</v>
+        <v>1.141506521172529</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.26332071304483</v>
+        <v>0.01247893731134193</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.141506521172529</v>
+        <v>3.474058460460894</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01247893731134193</v>
+        <v>0.9423214394733997</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.474058460460894</v>
+        <v>1.835963287416633</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9423214394733997</v>
+        <v>10</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.835963287416633</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.274766127947642</v>
       </c>
     </row>
@@ -2390,72 +2342,66 @@
         <v>1.403103085360392e-06</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.8494094984039361</v>
+        <v>3.874784232885942e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.045082055365959</v>
+        <v>6.420946477322534e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.874784232885942e-06</v>
+        <v>0.0460223031368216</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.420946477322534e-06</v>
+        <v>0.08028277779351141</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.0460223031368216</v>
+        <v>0.008563619197205477</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.08028277779351141</v>
+        <v>1.498951172222132</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.008563619197205477</v>
+        <v>1.461864077990365</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.395683024519504</v>
+        <v>4.329450694238144</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.461864077990365</v>
+        <v>6.473229380812564e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.329450694238144</v>
+        <v>10603939.60538595</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>6.473229380812564e-14</v>
+        <v>9.969933844920216e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>10603939.60538595</v>
+        <v>7.278727954456574</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>9.969933844920216e-06</v>
+        <v>9.817910327708426e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>7.278727954456574</v>
+        <v>10.3358066826009</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>9.817910327708426e-05</v>
+        <v>1.229140168324786</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.3358066826009</v>
+        <v>0.01048836558448747</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.229140168324786</v>
+        <v>3.516232028873501</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01048836558448747</v>
+        <v>0.9430923101942598</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.516232028873501</v>
+        <v>1.853228790052085</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9430923101942598</v>
+        <v>15</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.853228790052085</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2700160025363357</v>
       </c>
     </row>
@@ -2470,72 +2416,66 @@
         <v>1.42490164625206e-06</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.7756932155103963</v>
+        <v>3.827961385178111e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.187176847149367</v>
+        <v>6.485226438990816e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.827961385178111e-06</v>
+        <v>0.04477323649136733</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.485226438990816e-06</v>
+        <v>0.07917602448798135</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.04477323649136733</v>
+        <v>0.008273487773746797</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.07917602448798135</v>
+        <v>1.502446897346356</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.008273487773746797</v>
+        <v>1.44323392752505</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.398719787047217</v>
+        <v>4.805877998746777</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.44323392752505</v>
+        <v>4.87641626935675e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.805877998746777</v>
+        <v>14452028.14250752</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.87641626935675e-14</v>
+        <v>7.353680046498335e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>14452028.14250752</v>
+        <v>10.18493751080603</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.353680046498335e-06</v>
+        <v>8.100079916789435e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>10.18493751080603</v>
+        <v>8.725841082168097</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>8.100079916789435e-05</v>
+        <v>1.387777995942121</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.725841082168097</v>
+        <v>0.00616742535877675</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.387777995942121</v>
+        <v>3.74249711092113</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.00616742535877675</v>
+        <v>0.9438047719708728</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.74249711092113</v>
+        <v>1.852852857921122</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9438047719708728</v>
+        <v>18</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.852852857921122</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2963323090274269</v>
       </c>
     </row>
@@ -2912,7 +2852,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.885092243278754</v>
+        <v>1.917647284937467</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.263151793038655</v>
@@ -3001,7 +2941,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.911232317427127</v>
+        <v>1.94462453770585</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.00299803285266</v>
@@ -3090,7 +3030,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.913613297843302</v>
+        <v>1.94938658536121</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.198407786265567</v>
@@ -3179,7 +3119,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.915938790867691</v>
+        <v>1.953061686089309</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.118450306516912</v>
@@ -3268,7 +3208,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.893687762615843</v>
+        <v>1.934862387103043</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.396312887430771</v>
@@ -3357,7 +3297,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.901960277323382</v>
+        <v>1.939184550404392</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.148520199604161</v>
@@ -3446,7 +3386,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.903228209801107</v>
+        <v>1.936256087455341</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.169389843768336</v>
@@ -3535,7 +3475,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.889361556718873</v>
+        <v>1.9251950976661</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.301514089588563</v>
@@ -3624,7 +3564,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.888256417753701</v>
+        <v>1.929242729160587</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.340866144932255</v>
@@ -3713,7 +3653,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.889093003232955</v>
+        <v>1.928996698769756</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.09677695092422</v>
@@ -3802,7 +3742,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.900300889908041</v>
+        <v>1.93796012354407</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.235739809921576</v>
@@ -3891,7 +3831,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.906332590113872</v>
+        <v>1.943779635914043</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.273746125562414</v>
@@ -3980,7 +3920,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.904972851400587</v>
+        <v>1.941261788712417</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.338027105354643</v>
@@ -4069,7 +4009,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.914274302933128</v>
+        <v>1.950332219664041</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.360062320221588</v>
@@ -4158,7 +4098,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.89793087937507</v>
+        <v>1.937166325086604</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.416318775569121</v>
@@ -4247,7 +4187,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.89321099244346</v>
+        <v>1.928830781897002</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.504596748348828</v>
@@ -4336,7 +4276,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.89007227071294</v>
+        <v>1.924029486764329</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.33113701576528</v>
@@ -4425,7 +4365,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.909950902485507</v>
+        <v>1.941911266557879</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.258227993011517</v>
@@ -4514,7 +4454,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.904330710860471</v>
+        <v>1.932277042917697</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.412300236557484</v>
@@ -4603,7 +4543,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.916080871116571</v>
+        <v>1.946418111111791</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.255558159928345</v>
@@ -4692,7 +4632,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.890043711699749</v>
+        <v>1.925133314465369</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.637440995169732</v>
@@ -4781,7 +4721,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.887541730287604</v>
+        <v>1.923806009461631</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.735071844494008</v>
@@ -4870,7 +4810,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.89538440356428</v>
+        <v>1.933456480565198</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.361229134998267</v>
@@ -4959,7 +4899,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.866497175523757</v>
+        <v>1.909561248330716</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.473489646300134</v>
@@ -5048,7 +4988,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.868511790637421</v>
+        <v>1.915691449605497</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.26517579362631</v>
@@ -5137,7 +5077,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.869106557775637</v>
+        <v>1.918515223872639</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.352804912231462</v>
@@ -5226,7 +5166,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.863904366388924</v>
+        <v>1.91432238299172</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.608672486644865</v>
@@ -5315,7 +5255,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.865923296998935</v>
+        <v>1.918578719142364</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.220650023375575</v>
@@ -5404,7 +5344,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.869560353456098</v>
+        <v>1.91881614428492</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.270156792308863</v>
@@ -5493,7 +5433,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.873244540716216</v>
+        <v>1.922030303672583</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.58942276450491</v>
@@ -5582,7 +5522,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.875225036244849</v>
+        <v>1.925270783822807</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.546341495379777</v>
@@ -5671,7 +5611,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.848633035224195</v>
+        <v>1.900419248389003</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.38789968427598</v>
@@ -5760,7 +5700,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.824710043709153</v>
+        <v>1.876652795115422</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.153431550148853</v>
@@ -5849,7 +5789,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.837559820818911</v>
+        <v>1.88776744191179</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.214292851091498</v>
@@ -5938,7 +5878,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.834137237407598</v>
+        <v>1.881795850943638</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.382968739102138</v>
@@ -6027,7 +5967,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.856085448978023</v>
+        <v>1.899187828908997</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.405715655314133</v>
@@ -6116,7 +6056,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.859513604701712</v>
+        <v>1.899692828820563</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.223533301189546</v>
@@ -6205,7 +6145,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.85347446140974</v>
+        <v>1.890121897139304</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.948180933916166</v>
@@ -6294,7 +6234,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.878371534199194</v>
+        <v>1.906671418780122</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.421581684926753</v>
@@ -6383,7 +6323,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.873391871504429</v>
+        <v>1.898381633416884</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.214212166554908</v>
@@ -6472,7 +6412,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.878091278236144</v>
+        <v>1.899352106870609</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.454169172009488</v>
@@ -6561,7 +6501,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.862681542687447</v>
+        <v>1.885553065875281</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.764167835449461</v>
@@ -6650,7 +6590,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.864179384056606</v>
+        <v>1.888038719194437</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.135429227260533</v>
@@ -6739,7 +6679,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.840957674218941</v>
+        <v>1.872301362931857</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.422792489031114</v>
@@ -6828,7 +6768,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.859173413867761</v>
+        <v>1.884548272131562</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.559798995150318</v>
@@ -6917,7 +6857,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.864086106659282</v>
+        <v>1.883206127815685</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.243862188202248</v>
@@ -7006,7 +6946,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.872441067088291</v>
+        <v>1.895760107944599</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.13953718614871</v>
@@ -7095,7 +7035,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.892867980468278</v>
+        <v>1.91319520056125</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.255742404763713</v>
@@ -7184,7 +7124,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.891338161170581</v>
+        <v>1.913814042502889</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.438526826332892</v>
@@ -7273,7 +7213,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.892207309600873</v>
+        <v>1.913201829505595</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.554436887060345</v>
@@ -7362,7 +7302,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.861846816902261</v>
+        <v>1.892869386068779</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.575477552328628</v>
@@ -7451,7 +7391,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.859438055784722</v>
+        <v>1.892357918070591</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.109583484516322</v>
@@ -7540,7 +7480,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.875997886950036</v>
+        <v>1.908301183534987</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.248840635994354</v>
@@ -7826,7 +7766,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.456705247311663</v>
+        <v>1.413053312116821</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.512195972984095</v>
@@ -7915,7 +7855,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.546964508919313</v>
+        <v>1.562319866962303</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.218274536641373</v>
@@ -8004,7 +7944,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.593812744000725</v>
+        <v>1.607059416355338</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.591585880420654</v>
@@ -8093,7 +8033,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.597572269030781</v>
+        <v>1.607322537718943</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.701260151182775</v>
@@ -8182,7 +8122,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.605463715769492</v>
+        <v>1.617141345606295</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.676480943512042</v>
@@ -8271,7 +8211,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.629220205835074</v>
+        <v>1.64285295708407</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.731136381966454</v>
@@ -8360,7 +8300,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.642872020366462</v>
+        <v>1.652236214619589</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.224025587292132</v>
@@ -8449,7 +8389,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.673536480116786</v>
+        <v>1.6784121349314</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.131975156981859</v>
@@ -8538,7 +8478,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.673642618915273</v>
+        <v>1.678142983636179</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.083497036355135</v>
@@ -8627,7 +8567,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.66246944630072</v>
+        <v>1.673453216721461</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.167736668884249</v>
@@ -8716,7 +8656,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.674092269703005</v>
+        <v>1.686542455297302</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.79483213393214</v>
@@ -8805,7 +8745,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.66715684851708</v>
+        <v>1.68107930117902</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.996172403527614</v>
@@ -8894,7 +8834,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.653651991058776</v>
+        <v>1.661424244546718</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.935476026169764</v>
@@ -8983,7 +8923,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.641505812009592</v>
+        <v>1.648586176009865</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.164505680106758</v>
@@ -9072,7 +9012,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.627677377077636</v>
+        <v>1.637095018978543</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.243033741303986</v>
@@ -9161,7 +9101,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.625175001963567</v>
+        <v>1.629431447805773</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.003978596238273</v>
@@ -9250,7 +9190,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.633474760587652</v>
+        <v>1.639262145052637</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.837427975564582</v>
@@ -9339,7 +9279,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.637252809930089</v>
+        <v>1.640817837736716</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.366387649238789</v>
@@ -9428,7 +9368,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.631904731682447</v>
+        <v>1.62642012317574</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.072274532599238</v>
@@ -9517,7 +9457,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.629813728309746</v>
+        <v>1.624074712282697</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.963918154319247</v>
@@ -9606,7 +9546,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.624357508809878</v>
+        <v>1.61419962985115</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.157229122957518</v>
@@ -9695,7 +9635,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.627822592707835</v>
+        <v>1.620975243055195</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.714228810734395</v>
@@ -9784,7 +9724,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.599690172703229</v>
+        <v>1.592246072831443</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.898024952215553</v>
@@ -9873,7 +9813,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.612802707824968</v>
+        <v>1.607624370775897</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.21131643457096</v>
@@ -9962,7 +9902,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.60063716276822</v>
+        <v>1.595740228777116</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.080852116921735</v>
@@ -10051,7 +9991,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.598488745083209</v>
+        <v>1.59225761770143</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.03361888144449</v>
@@ -10140,7 +10080,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.59441036220545</v>
+        <v>1.584871408115181</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.491940260142757</v>
@@ -10229,7 +10169,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.602711059169281</v>
+        <v>1.60315648644428</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.827530033833888</v>
@@ -10318,7 +10258,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.60588059176977</v>
+        <v>1.604077118499884</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.642275406400679</v>
@@ -10407,7 +10347,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.609224576862644</v>
+        <v>1.609261884759883</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.552277849917342</v>
@@ -10496,7 +10436,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.587271831620059</v>
+        <v>1.598473261308101</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.727594999482046</v>
@@ -10585,7 +10525,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.569717416912455</v>
+        <v>1.582783052708374</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.586814113776809</v>
@@ -10674,7 +10614,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.564840072590864</v>
+        <v>1.579529704999644</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.826899242374877</v>
@@ -10763,7 +10703,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.573534582064048</v>
+        <v>1.591039667746738</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.797276629785982</v>
@@ -10852,7 +10792,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.575564844715711</v>
+        <v>1.591936242573053</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.606638162846961</v>
@@ -10941,7 +10881,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.567216821116771</v>
+        <v>1.589938860895955</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.726104542089486</v>
@@ -11030,7 +10970,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.560060120326298</v>
+        <v>1.579493668192746</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.531257762430363</v>
@@ -11119,7 +11059,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.56165875212329</v>
+        <v>1.582109242118286</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.729961393793908</v>
@@ -11208,7 +11148,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.55137980799634</v>
+        <v>1.570699217502876</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.655368086146043</v>
@@ -11297,7 +11237,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.557803922791561</v>
+        <v>1.57972763077585</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.834859452865109</v>
@@ -11386,7 +11326,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.553849253078706</v>
+        <v>1.572555558529102</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.815584655215666</v>
@@ -11475,7 +11415,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.556508004165367</v>
+        <v>1.573862511394219</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.841348264087531</v>
@@ -11564,7 +11504,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.554895186059105</v>
+        <v>1.568768755135614</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.747815186298914</v>
@@ -11653,7 +11593,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.544048254263721</v>
+        <v>1.559763812098521</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.812718989536907</v>
@@ -11742,7 +11682,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.545577851753</v>
+        <v>1.560978571276602</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.886090051830739</v>
@@ -11831,7 +11771,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.574557877702586</v>
+        <v>1.584772703109933</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.828755245666173</v>
@@ -11920,7 +11860,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.569908526066405</v>
+        <v>1.574251854759872</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.777250231186377</v>
@@ -12009,7 +11949,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.563984526865086</v>
+        <v>1.564195088031396</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.801131429461156</v>
@@ -12098,7 +12038,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.562479903028989</v>
+        <v>1.566257037815348</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.768867526853891</v>
@@ -12187,7 +12127,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.55203858573729</v>
+        <v>1.556297208031704</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.797476282543172</v>
@@ -12276,7 +12216,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.552213253199463</v>
+        <v>1.555451962901469</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.737945933769002</v>
@@ -12365,7 +12305,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.548720871108237</v>
+        <v>1.55214617362993</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.724286121935776</v>
@@ -12454,7 +12394,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.564780880749807</v>
+        <v>1.566730859905906</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.864945030009094</v>
@@ -12740,7 +12680,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.8885370327211</v>
+        <v>1.878295312518032</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.374699887189011</v>
@@ -12829,7 +12769,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.89275474953077</v>
+        <v>1.885894936140383</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.244557134249821</v>
@@ -12918,7 +12858,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.895565059691553</v>
+        <v>1.891040618439537</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.771073360415931</v>
@@ -13007,7 +12947,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.90384103733224</v>
+        <v>1.898421757789122</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.485324573207436</v>
@@ -13096,7 +13036,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.902033848601455</v>
+        <v>1.89932145885677</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.473289994754899</v>
@@ -13185,7 +13125,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.900476867422896</v>
+        <v>1.902472565036029</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.553946178705468</v>
@@ -13274,7 +13214,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.90494149544966</v>
+        <v>1.904324583203951</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.45523426257662</v>
@@ -13363,7 +13303,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.905389185829673</v>
+        <v>1.901608713084962</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.480092421973287</v>
@@ -13452,7 +13392,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.901978056997997</v>
+        <v>1.900431844202009</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.908710542680168</v>
@@ -13541,7 +13481,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.906000755268593</v>
+        <v>1.904037794456017</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.507439488093347</v>
@@ -13630,7 +13570,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.90559361622716</v>
+        <v>1.90667976869457</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.046032601278367</v>
@@ -13719,7 +13659,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.912026871771278</v>
+        <v>1.911399451111627</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.50637792716998</v>
@@ -13808,7 +13748,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.9117159834446</v>
+        <v>1.912876059570366</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.08944891449189</v>
@@ -13897,7 +13837,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.915103139512236</v>
+        <v>1.916279262431409</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.328963662888761</v>
@@ -13986,7 +13926,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.903619541297427</v>
+        <v>1.905747764293719</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.530411764134636</v>
@@ -14075,7 +14015,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.903562804556836</v>
+        <v>1.898406134623249</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.584670579331693</v>
@@ -14164,7 +14104,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.903382094594083</v>
+        <v>1.903040991702095</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.656062144112325</v>
@@ -14253,7 +14193,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.91012586168461</v>
+        <v>1.909159980197986</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.301687747335706</v>
@@ -14342,7 +14282,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.904396914567117</v>
+        <v>1.902774923261206</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.498811385686138</v>
@@ -14431,7 +14371,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.907024471998117</v>
+        <v>1.907519191180703</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.402261927891269</v>
@@ -14520,7 +14460,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.904446826903528</v>
+        <v>1.906245048476753</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.772130410959618</v>
@@ -14609,7 +14549,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.904283112238322</v>
+        <v>1.906761700871159</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.578243828484426</v>
@@ -14698,7 +14638,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.901419147264151</v>
+        <v>1.912786457076891</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.260160629182462</v>
@@ -14787,7 +14727,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.907702192349814</v>
+        <v>1.919646555942869</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.203783321987411</v>
@@ -14876,7 +14816,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.91236205225658</v>
+        <v>1.925685998301977</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.577486921880324</v>
@@ -14965,7 +14905,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.914562754607275</v>
+        <v>1.92884842521445</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.353597462976738</v>
@@ -15054,7 +14994,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.913624498472176</v>
+        <v>1.930171763296119</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.643148802830847</v>
@@ -15143,7 +15083,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.915251993006184</v>
+        <v>1.934013315743649</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.887288519021156</v>
@@ -15232,7 +15172,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.9097249427743</v>
+        <v>1.931920148439027</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.278978360011172</v>
@@ -15321,7 +15261,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.910572149025551</v>
+        <v>1.931038929567259</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.287354084548284</v>
@@ -15410,7 +15350,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.906685277113951</v>
+        <v>1.937079192887633</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.487455049836253</v>
@@ -15499,7 +15439,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.897469564521879</v>
+        <v>1.92026010888626</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.941979026978855</v>
@@ -15588,7 +15528,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.885277020733523</v>
+        <v>1.902368294343173</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.91856359780521</v>
@@ -15677,7 +15617,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.892838140051879</v>
+        <v>1.90975527127028</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>5.043768064286717</v>
@@ -15766,7 +15706,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.888197221576939</v>
+        <v>1.901015413284827</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.129156843246533</v>
@@ -15855,7 +15795,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.881256488724329</v>
+        <v>1.896392444616118</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.32494076695031</v>
@@ -15944,7 +15884,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.874283046960264</v>
+        <v>1.888269735364962</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.130910356687247</v>
@@ -16033,7 +15973,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.869766665768137</v>
+        <v>1.881972354412833</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.915282103425673</v>
@@ -16122,7 +16062,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.868085179096276</v>
+        <v>1.877157370801815</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.880579446195672</v>
@@ -16211,7 +16151,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.857004191413011</v>
+        <v>1.863566027118491</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.210565835999692</v>
@@ -16300,7 +16240,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.860343896023757</v>
+        <v>1.866398423596623</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.69028886382907</v>
@@ -16389,7 +16329,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.852498496605725</v>
+        <v>1.854829351787623</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.655549116842618</v>
@@ -16478,7 +16418,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.852777497465401</v>
+        <v>1.853567772194619</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.947556445729582</v>
@@ -16567,7 +16507,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.853303329489825</v>
+        <v>1.855356398641177</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.591992384186633</v>
@@ -16656,7 +16596,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.862036848417946</v>
+        <v>1.859567872914921</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.8642559811738</v>
@@ -16745,7 +16685,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.866532499905937</v>
+        <v>1.859369231898007</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.312619915071474</v>
@@ -16834,7 +16774,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.868273788788859</v>
+        <v>1.86577642901822</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.804490609331607</v>
@@ -16923,7 +16863,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.875668135390333</v>
+        <v>1.87486041289453</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.584050122049484</v>
@@ -17012,7 +16952,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.86882671936051</v>
+        <v>1.870555725908461</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.465241410013273</v>
@@ -17101,7 +17041,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.865471981436507</v>
+        <v>1.86660467553086</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.359020487865749</v>
@@ -17190,7 +17130,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.856023058733944</v>
+        <v>1.857032472837659</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.546671887824487</v>
@@ -17279,7 +17219,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.857107814365319</v>
+        <v>1.855430763806099</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.778525767471419</v>
@@ -17368,7 +17308,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.858851332377936</v>
+        <v>1.857939357609125</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.421502105380781</v>
@@ -17654,7 +17594,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.915075221483143</v>
+        <v>1.917614138550298</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.76561205970136</v>
@@ -17743,7 +17683,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.92564160913275</v>
+        <v>1.930739162434317</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.642666260592059</v>
@@ -17832,7 +17772,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.930955466756975</v>
+        <v>1.938318444808019</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.750588243627716</v>
@@ -17921,7 +17861,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.93059708452102</v>
+        <v>1.937211830807065</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.968598783894365</v>
@@ -18010,7 +17950,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.919105687905902</v>
+        <v>1.931432409289979</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.856586528421832</v>
@@ -18099,7 +18039,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.923412592969461</v>
+        <v>1.935110923210728</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.761417687801774</v>
@@ -18188,7 +18128,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.920626548669238</v>
+        <v>1.932776905291252</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.610366196664545</v>
@@ -18277,7 +18217,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.914025552756739</v>
+        <v>1.917725347469795</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.975068664804582</v>
@@ -18366,7 +18306,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.910569880393561</v>
+        <v>1.91819861333425</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.095806710067782</v>
@@ -18455,7 +18395,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.912493470934595</v>
+        <v>1.919613810824326</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.058582441729914</v>
@@ -18544,7 +18484,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.920216690027899</v>
+        <v>1.924700133336752</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.165930359073168</v>
@@ -18633,7 +18573,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.921069478659566</v>
+        <v>1.920830204073449</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.107167285421516</v>
@@ -18722,7 +18662,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.918506300050643</v>
+        <v>1.918830332931262</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.110624094321696</v>
@@ -18811,7 +18751,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.924687085897159</v>
+        <v>1.920217521870728</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.102260651797778</v>
@@ -18900,7 +18840,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.911877583279371</v>
+        <v>1.90638623103296</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.833033600415539</v>
@@ -18989,7 +18929,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.909274411282718</v>
+        <v>1.895617611437717</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.154462170118644</v>
@@ -19078,7 +19018,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.907390128875079</v>
+        <v>1.899265423864524</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.302182466444377</v>
@@ -19167,7 +19107,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.918547998642098</v>
+        <v>1.904650199153622</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.187981438861764</v>
@@ -19256,7 +19196,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.90886704326163</v>
+        <v>1.892556572460268</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.151359524504089</v>
@@ -19345,7 +19285,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.912521506933357</v>
+        <v>1.898038944061191</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.377714844988381</v>
@@ -19434,7 +19374,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.909719375563031</v>
+        <v>1.90130579069507</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.399026907830982</v>
@@ -19523,7 +19463,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.909525521911744</v>
+        <v>1.901156924841638</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.289666648506491</v>
@@ -19612,7 +19552,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.907209028999304</v>
+        <v>1.902893739653355</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.964845714005022</v>
@@ -19701,7 +19641,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.897022268910138</v>
+        <v>1.891371943128789</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.107890725780356</v>
@@ -19790,7 +19730,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.896038175280888</v>
+        <v>1.893739148688187</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.996587213130111</v>
@@ -19879,7 +19819,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.899319088138683</v>
+        <v>1.899899119837102</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.215194319331626</v>
@@ -19968,7 +19908,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.900911707179391</v>
+        <v>1.90417348791094</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.054138699528943</v>
@@ -20057,7 +19997,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.902669080136131</v>
+        <v>1.903979690910145</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.073905249321625</v>
@@ -20146,7 +20086,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.898138071515861</v>
+        <v>1.898909514849259</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.774710799871977</v>
@@ -20235,7 +20175,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.901320345939548</v>
+        <v>1.901508236535548</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.044189034817579</v>
@@ -20324,7 +20264,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.894795433494109</v>
+        <v>1.902214355683747</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.698205131394192</v>
@@ -20413,7 +20353,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.882175755165244</v>
+        <v>1.888530531697686</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.890781519879221</v>
@@ -20502,7 +20442,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.86428596404307</v>
+        <v>1.870770070859425</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.31205677267121</v>
@@ -20591,7 +20531,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.877615677497912</v>
+        <v>1.881559730624764</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.448686728502477</v>
@@ -20680,7 +20620,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.874044953224842</v>
+        <v>1.876467259170681</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.142541393495405</v>
@@ -20769,7 +20709,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.877748630997179</v>
+        <v>1.876196789909973</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.003098457810829</v>
@@ -20858,7 +20798,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.877552035880268</v>
+        <v>1.880556259393668</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.210530989809657</v>
@@ -20947,7 +20887,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.877976394456599</v>
+        <v>1.879686882144354</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.262949823283381</v>
@@ -21036,7 +20976,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.886474623576618</v>
+        <v>1.883727412007512</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.4869681206137</v>
@@ -21125,7 +21065,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.883728402359366</v>
+        <v>1.874092590785947</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.857904694316463</v>
@@ -21214,7 +21154,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.877662680273943</v>
+        <v>1.862288116655295</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.177386146142837</v>
@@ -21303,7 +21243,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.868924812574763</v>
+        <v>1.849862773626681</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.552851855494306</v>
@@ -21392,7 +21332,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.86908027005393</v>
+        <v>1.850878486359252</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.5672512717363</v>
@@ -21481,7 +21421,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.863239674168434</v>
+        <v>1.848681453803107</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.258009198858999</v>
@@ -21570,7 +21510,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.869169991287716</v>
+        <v>1.85720053473094</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.547575065711515</v>
@@ -21659,7 +21599,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.877836188465266</v>
+        <v>1.858182507185124</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.159135644899378</v>
@@ -21748,7 +21688,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.876787332792439</v>
+        <v>1.855401028020716</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.224046613404417</v>
@@ -21837,7 +21777,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.891323283923791</v>
+        <v>1.867527172621441</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.278935896134915</v>
@@ -21926,7 +21866,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.888047932257845</v>
+        <v>1.863035369000609</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.214686369194836</v>
@@ -22015,7 +21955,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.888352167107334</v>
+        <v>1.862880706953195</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.312814791120385</v>
@@ -22104,7 +22044,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.876539249231708</v>
+        <v>1.852360341968911</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.569931227088177</v>
@@ -22193,7 +22133,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.874886244944094</v>
+        <v>1.846488018167121</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.179257070243509</v>
@@ -22282,7 +22222,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.881004275166436</v>
+        <v>1.852076060116799</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.180810530686188</v>
@@ -22568,7 +22508,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.574701823692034</v>
+        <v>1.606624508212559</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.523473802601095</v>
@@ -22657,7 +22597,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.573486065613613</v>
+        <v>1.607495800044231</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.375848091620821</v>
@@ -22746,7 +22686,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.59550557224788</v>
+        <v>1.629667338583471</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.596989453286195</v>
@@ -22835,7 +22775,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.617443058229698</v>
+        <v>1.653226334171357</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.865855217742622</v>
@@ -22924,7 +22864,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.604543869579567</v>
+        <v>1.642870293627816</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.675609142885596</v>
@@ -23013,7 +22953,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.593630431008586</v>
+        <v>1.63238024253062</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.684727041351049</v>
@@ -23102,7 +23042,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.593237090545851</v>
+        <v>1.624983329430728</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.77472435926945</v>
@@ -23191,7 +23131,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.617042143152039</v>
+        <v>1.641888402555238</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.621303329837221</v>
@@ -23280,7 +23220,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.623158390419285</v>
+        <v>1.641226794659263</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.750369582971084</v>
@@ -23369,7 +23309,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.612508671901343</v>
+        <v>1.628476469957289</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.730973134583907</v>
@@ -23458,7 +23398,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.617677543214853</v>
+        <v>1.630634477030251</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.610649741628457</v>
@@ -23547,7 +23487,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.606618423146417</v>
+        <v>1.624388941570304</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.677176246977846</v>
@@ -23636,7 +23576,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.597909542175925</v>
+        <v>1.614990267689473</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.711736189995428</v>
@@ -23725,7 +23665,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.596753998318451</v>
+        <v>1.61594579330021</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.586980791068033</v>
@@ -23814,7 +23754,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.578306856382822</v>
+        <v>1.597516389982916</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.654353816242857</v>
@@ -23903,7 +23843,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.573786639342609</v>
+        <v>1.595107017519026</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.693874650782486</v>
@@ -23992,7 +23932,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.574307920067565</v>
+        <v>1.593395377206367</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.627753818947193</v>
@@ -24081,7 +24021,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.579010768057535</v>
+        <v>1.59598671128029</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.67745916487492</v>
@@ -24170,7 +24110,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.585537129284897</v>
+        <v>1.596761376038301</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.639041148205158</v>
@@ -24259,7 +24199,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.596606780345426</v>
+        <v>1.605832434690762</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.683546356772574</v>
@@ -24348,7 +24288,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.609078854993383</v>
+        <v>1.617142358708802</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.651398052970442</v>
@@ -24437,7 +24377,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.623249319751407</v>
+        <v>1.632327976170054</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.492743211014531</v>
@@ -24526,7 +24466,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.596509125686129</v>
+        <v>1.607698074425978</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.677361133208144</v>
@@ -24615,7 +24555,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.596670083791935</v>
+        <v>1.60887003006795</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.685547969521085</v>
@@ -24704,7 +24644,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.598109689728867</v>
+        <v>1.612511805773506</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.604376130966894</v>
@@ -24793,7 +24733,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.583437082337307</v>
+        <v>1.597760628106927</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.605281567002088</v>
@@ -24882,7 +24822,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.594480421446935</v>
+        <v>1.601894092693813</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.399612468652039</v>
@@ -24971,7 +24911,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.599905773131056</v>
+        <v>1.611038231328674</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.538357054354598</v>
@@ -25060,7 +25000,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.597896834812452</v>
+        <v>1.607238852574265</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.496345477763628</v>
@@ -25149,7 +25089,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.602237916116482</v>
+        <v>1.608390180783701</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.673459128450317</v>
@@ -25238,7 +25178,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.619873733590186</v>
+        <v>1.622232060998302</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.51211932498867</v>
@@ -25327,7 +25267,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.6216742857681</v>
+        <v>1.623410445863585</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.622118740102483</v>
@@ -25416,7 +25356,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.607480508756927</v>
+        <v>1.61037055301957</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.674349399251215</v>
@@ -25505,7 +25445,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.608428312038677</v>
+        <v>1.610919926073443</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.542129612602307</v>
@@ -25594,7 +25534,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.601872352899479</v>
+        <v>1.604309116822483</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.637241626166685</v>
@@ -25683,7 +25623,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.519810331059815</v>
+        <v>1.521642062219823</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.831044505314985</v>
@@ -25772,7 +25712,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.517190685052964</v>
+        <v>1.520576874227542</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.857205607655552</v>
@@ -25861,7 +25801,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.523146907921665</v>
+        <v>1.530811729454826</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.837470326030559</v>
@@ -25950,7 +25890,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.521601286510574</v>
+        <v>1.529610825074029</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.863534415328193</v>
@@ -26039,7 +25979,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.531673012643545</v>
+        <v>1.539780011230205</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.850318307727325</v>
@@ -26128,7 +26068,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.514695527540399</v>
+        <v>1.52419535981412</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.855515287301505</v>
@@ -26217,7 +26157,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.507441736539278</v>
+        <v>1.521338690200668</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.878749509970662</v>
@@ -26306,7 +26246,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.499593504162777</v>
+        <v>1.511230367639648</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.852082594651355</v>
@@ -26395,7 +26335,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.499467606423304</v>
+        <v>1.509309264319817</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.841403338184456</v>
@@ -26484,7 +26424,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.504668535134115</v>
+        <v>1.511586618017163</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.836103077532811</v>
@@ -26573,7 +26513,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.515038131791707</v>
+        <v>1.523267013203908</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.839833658479051</v>
@@ -26662,7 +26602,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.504126487020051</v>
+        <v>1.509597238941651</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.811659886496565</v>
@@ -26751,7 +26691,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.507097069795853</v>
+        <v>1.511312215634543</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.832714666601571</v>
@@ -26840,7 +26780,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.505515623560387</v>
+        <v>1.515638909916595</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.834130451961519</v>
@@ -26929,7 +26869,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.493222550794226</v>
+        <v>1.50125154361914</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.877817070382216</v>
@@ -27018,7 +26958,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.501625339218279</v>
+        <v>1.513839025371862</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.107025406122109</v>
@@ -27107,7 +27047,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.495300762512031</v>
+        <v>1.508102297222718</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.115377400398114</v>
@@ -27196,7 +27136,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.500492094846364</v>
+        <v>1.512728044258699</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.160557776460945</v>
@@ -27482,7 +27422,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.800017396127553</v>
+        <v>1.830522500873527</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.725218384284831</v>
@@ -27571,7 +27511,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.822347791824014</v>
+        <v>1.851577437173009</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.66991049901666</v>
@@ -27660,7 +27600,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.838509012068816</v>
+        <v>1.86832457329808</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.722906254997105</v>
@@ -27749,7 +27689,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.835753430635105</v>
+        <v>1.86577655922989</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.841158049248237</v>
@@ -27838,7 +27778,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.804597036651915</v>
+        <v>1.838852242564455</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.910116352597901</v>
@@ -27927,7 +27867,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.828870783564298</v>
+        <v>1.856619456769552</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.914086370271593</v>
@@ -28016,7 +27956,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.831163305513251</v>
+        <v>1.859446330990177</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.041353153617854</v>
@@ -28105,7 +28045,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.814570071580515</v>
+        <v>1.838118224068333</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.003759366984186</v>
@@ -28194,7 +28134,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.803239221754285</v>
+        <v>1.835575585478645</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.921784902169487</v>
@@ -28283,7 +28223,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.811874193778767</v>
+        <v>1.842490579565744</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.701480747899317</v>
@@ -28372,7 +28312,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.835535887865902</v>
+        <v>1.862169009012373</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.858291140212678</v>
@@ -28461,7 +28401,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.84151939818774</v>
+        <v>1.866404544513783</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.89802099090667</v>
@@ -28550,7 +28490,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.843022991554288</v>
+        <v>1.866726082062562</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.978927901801169</v>
@@ -28639,7 +28579,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.852469423442423</v>
+        <v>1.870039983084729</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.849007192872883</v>
@@ -28728,7 +28668,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.840498095123691</v>
+        <v>1.859157040253173</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.071308899004979</v>
@@ -28817,7 +28757,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.839482577404633</v>
+        <v>1.852360215022023</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.857109149400356</v>
@@ -28906,7 +28846,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.835659444332355</v>
+        <v>1.850780213017488</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.975945369089285</v>
@@ -28995,7 +28935,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.869692850972193</v>
+        <v>1.881576705753565</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.016753179146874</v>
@@ -29084,7 +29024,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.86256264977821</v>
+        <v>1.870295217102053</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.948108122300024</v>
@@ -29173,7 +29113,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.875868976144959</v>
+        <v>1.88648649443464</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.731610392315011</v>
@@ -29262,7 +29202,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.841567449535308</v>
+        <v>1.862143995968241</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.929456510674262</v>
@@ -29351,7 +29291,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.83912371979428</v>
+        <v>1.861595968306637</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.811166005636378</v>
@@ -29440,7 +29380,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.823761807510502</v>
+        <v>1.848372759668755</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.694562689166061</v>
@@ -29529,7 +29469,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.794600131253218</v>
+        <v>1.825873718325704</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.882252587388176</v>
@@ -29618,7 +29558,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.787914202863285</v>
+        <v>1.821859501650847</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.904611228100838</v>
@@ -29707,7 +29647,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.790588472956996</v>
+        <v>1.828297959011939</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.771049088650236</v>
@@ -29796,7 +29736,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.787864504434993</v>
+        <v>1.827913454744876</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.918579106613266</v>
@@ -29885,7 +29825,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.78377486384391</v>
+        <v>1.824267271842039</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.038092350106447</v>
@@ -29974,7 +29914,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.783468830608443</v>
+        <v>1.824948542921623</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.947357321066411</v>
@@ -30063,7 +30003,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.78097093900282</v>
+        <v>1.823977836241096</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.914113285105469</v>
@@ -30152,7 +30092,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.774696101386306</v>
+        <v>1.817473121959458</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.92430876922692</v>
@@ -30241,7 +30181,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.754385165257943</v>
+        <v>1.796870287199051</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.877855403338623</v>
@@ -30330,7 +30270,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.731101980123749</v>
+        <v>1.770848179325491</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.811613887473041</v>
@@ -30419,7 +30359,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.758168335792103</v>
+        <v>1.795365603064343</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.867084163422462</v>
@@ -30508,7 +30448,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.756353589187107</v>
+        <v>1.794898519493638</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.849781301165162</v>
@@ -30597,7 +30537,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.785609455184272</v>
+        <v>1.820657142026026</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.850323081694905</v>
@@ -30686,7 +30626,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.789548696622179</v>
+        <v>1.827311554428622</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.036301623487699</v>
@@ -30775,7 +30715,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.812059147216209</v>
+        <v>1.844802876424829</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.823536997643652</v>
@@ -30864,7 +30804,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.836475254726932</v>
+        <v>1.861431532483008</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.902834644933316</v>
@@ -30953,7 +30893,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.836201574777797</v>
+        <v>1.854129876825555</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.949928499852402</v>
@@ -31042,7 +30982,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.83469775623682</v>
+        <v>1.848977317139367</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.025306757207087</v>
@@ -31131,7 +31071,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.822901473241633</v>
+        <v>1.835797420691156</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.212665789734356</v>
@@ -31220,7 +31160,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.826342698250498</v>
+        <v>1.841655186910696</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.985626910642527</v>
@@ -31309,7 +31249,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.796178312750132</v>
+        <v>1.816655053846697</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.021124421994809</v>
@@ -31398,7 +31338,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.820354203174004</v>
+        <v>1.837359274334549</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.171211041489148</v>
@@ -31487,7 +31427,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.837729875152741</v>
+        <v>1.852770828635589</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.778352854683752</v>
@@ -31576,7 +31516,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.841157943019646</v>
+        <v>1.858732542056436</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.127126929803923</v>
@@ -31665,7 +31605,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.859862206040098</v>
+        <v>1.876298180584654</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.219163469581814</v>
@@ -31754,7 +31694,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.857771153066584</v>
+        <v>1.875343966922023</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.234552156088398</v>
@@ -31843,7 +31783,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.856173816488178</v>
+        <v>1.87299311583129</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.091669134637475</v>
@@ -31932,7 +31872,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.817653684915372</v>
+        <v>1.838408279094588</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.892933528869229</v>
@@ -32021,7 +31961,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.817545724060997</v>
+        <v>1.836836204857042</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.025167116174655</v>
@@ -32110,7 +32050,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.834218392446736</v>
+        <v>1.853259421132796</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.825109818298618</v>
